--- a/SPPSApi/Doc/Template/FS0610_ImPro.xlsx
+++ b/SPPSApi/Doc/Template/FS0610_ImPro.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="78">
   <si>
     <t>工程名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,6 +261,10 @@
   </si>
   <si>
     <t>工厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -625,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EI1"/>
+  <dimension ref="A1:EJ1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="EK1" sqref="EK1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -637,9 +641,10 @@
     <col min="11" max="11" width="11" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="9" style="5" customWidth="1"/>
     <col min="15" max="139" width="9" style="3" customWidth="1"/>
+    <col min="140" max="140" width="12.109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:140" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>63</v>
       </c>
@@ -1056,11 +1061,14 @@
       </c>
       <c r="EI1" s="1" t="s">
         <v>62</v>
+      </c>
+      <c r="EJ1" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" copies="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SPPSApi/Doc/Template/FS0610_ImPro.xlsx
+++ b/SPPSApi/Doc/Template/FS0610_ImPro.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="77">
   <si>
     <t>工程名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -245,10 +245,6 @@
   </si>
   <si>
     <t>月度总量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品名（中）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -286,6 +282,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -629,27 +626,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EJ1"/>
+  <dimension ref="A1:EI1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="EK1" sqref="EK1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="10" width="9" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" style="5" customWidth="1"/>
     <col min="12" max="14" width="9" style="5" customWidth="1"/>
     <col min="15" max="139" width="9" style="3" customWidth="1"/>
-    <col min="140" max="140" width="12.109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:140" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:139" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>64</v>
@@ -661,7 +655,7 @@
         <v>66</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>67</v>
@@ -676,10 +670,10 @@
         <v>70</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>0</v>
@@ -1061,9 +1055,6 @@
       </c>
       <c r="EI1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="EJ1" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
